--- a/Structural_elements.xlsx
+++ b/Structural_elements.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Desktop\gnomAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61EEB5A-7FB7-4639-8464-4D3774C84C9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5C4FC5-34D6-40D9-9775-37FE24DDF8C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{305C21C7-1A04-4DBA-9567-462A5CECA9AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="Structural_elements" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C37D856-6B35-4E0C-B741-088E4C9F9DFB}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -510,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -552,7 +552,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -580,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -594,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -608,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -622,7 +622,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -650,7 +650,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -664,7 +664,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -678,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="C15">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -692,7 +692,7 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -762,7 +762,7 @@
         <v>16</v>
       </c>
       <c r="C21">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -776,7 +776,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -790,7 +790,7 @@
         <v>17</v>
       </c>
       <c r="C23">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -818,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -832,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="C26">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -846,7 +846,7 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -860,7 +860,7 @@
         <v>20</v>
       </c>
       <c r="C28">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -888,7 +888,7 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="D30" t="s">
         <v>21</v>
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
@@ -916,7 +916,7 @@
         <v>20</v>
       </c>
       <c r="C32">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D32" t="s">
         <v>21</v>
@@ -930,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -944,7 +944,7 @@
         <v>18</v>
       </c>
       <c r="C34">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -958,7 +958,7 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -972,7 +972,7 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -986,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -1000,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
@@ -1014,7 +1014,7 @@
         <v>24</v>
       </c>
       <c r="C39">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="C41">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="D41" t="s">
         <v>26</v>
@@ -1056,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
@@ -1070,7 +1070,7 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
@@ -1084,7 +1084,7 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="D44" t="s">
         <v>26</v>
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
@@ -1112,7 +1112,7 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -1126,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
         <v>26</v>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C49">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
@@ -1168,7 +1168,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
         <v>26</v>
@@ -1182,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="D51" t="s">
         <v>26</v>

--- a/Structural_elements.xlsx
+++ b/Structural_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Desktop\gnomAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jure\Documents\GitHub\gnomAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5C4FC5-34D6-40D9-9775-37FE24DDF8C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7A250-C2F2-48C2-BAD9-E837F7B46D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{305C21C7-1A04-4DBA-9567-462A5CECA9AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{305C21C7-1A04-4DBA-9567-462A5CECA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Structural_elements" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="36">
   <si>
     <t>Gene</t>
   </si>
@@ -110,12 +110,36 @@
   <si>
     <t>uTMD_complementary_close</t>
   </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>TM1</t>
+  </si>
+  <si>
+    <t>TM2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>TM3</t>
+  </si>
+  <si>
+    <t>TM4</t>
+  </si>
+  <si>
+    <t>ECD</t>
+  </si>
+  <si>
+    <t>ICD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +147,20 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,11 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -165,9 +204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +244,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -311,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C37D856-6B35-4E0C-B741-088E4C9F9DFB}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="F335" sqref="F335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1227,5597 @@
         <v>26</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>252</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>253</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>254</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>255</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>256</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>257</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>258</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>259</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>260</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>261</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>262</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>263</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>264</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>265</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>266</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>267</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>268</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>23</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>270</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71">
+        <v>271</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>272</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B73" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73">
+        <v>273</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>279</v>
+      </c>
+      <c r="D74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>280</v>
+      </c>
+      <c r="D75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76">
+        <v>281</v>
+      </c>
+      <c r="D76" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>282</v>
+      </c>
+      <c r="D77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>283</v>
+      </c>
+      <c r="D78" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>284</v>
+      </c>
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>285</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81">
+        <v>286</v>
+      </c>
+      <c r="D81" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>287</v>
+      </c>
+      <c r="D82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>288</v>
+      </c>
+      <c r="D83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>289</v>
+      </c>
+      <c r="D84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>23</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>290</v>
+      </c>
+      <c r="D85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86">
+        <v>291</v>
+      </c>
+      <c r="D86" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>292</v>
+      </c>
+      <c r="D87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>293</v>
+      </c>
+      <c r="D88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>294</v>
+      </c>
+      <c r="D89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>23</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>295</v>
+      </c>
+      <c r="D90" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>296</v>
+      </c>
+      <c r="D91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>297</v>
+      </c>
+      <c r="D92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>298</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>299</v>
+      </c>
+      <c r="D94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>300</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>313</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>314</v>
+      </c>
+      <c r="D97" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98">
+        <v>315</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99">
+        <v>316</v>
+      </c>
+      <c r="D99" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>317</v>
+      </c>
+      <c r="D100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101">
+        <v>318</v>
+      </c>
+      <c r="D101" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>319</v>
+      </c>
+      <c r="D102" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <v>320</v>
+      </c>
+      <c r="D103" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>321</v>
+      </c>
+      <c r="D104" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105">
+        <v>322</v>
+      </c>
+      <c r="D105" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106">
+        <v>323</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>324</v>
+      </c>
+      <c r="D107" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108">
+        <v>325</v>
+      </c>
+      <c r="D108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>326</v>
+      </c>
+      <c r="D109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>23</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110">
+        <v>327</v>
+      </c>
+      <c r="D110" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>328</v>
+      </c>
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>329</v>
+      </c>
+      <c r="D112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113">
+        <v>330</v>
+      </c>
+      <c r="D113" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>331</v>
+      </c>
+      <c r="D114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>23</v>
+      </c>
+      <c r="B115" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115">
+        <v>332</v>
+      </c>
+      <c r="D115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>333</v>
+      </c>
+      <c r="D116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>23</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>334</v>
+      </c>
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>422</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>423</v>
+      </c>
+      <c r="D119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>23</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>424</v>
+      </c>
+      <c r="D120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>23</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>425</v>
+      </c>
+      <c r="D121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>426</v>
+      </c>
+      <c r="D122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>20</v>
+      </c>
+      <c r="C123">
+        <v>427</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <v>428</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125">
+        <v>429</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>430</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>431</v>
+      </c>
+      <c r="D127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>432</v>
+      </c>
+      <c r="D128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>433</v>
+      </c>
+      <c r="D129" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130">
+        <v>434</v>
+      </c>
+      <c r="D130" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131">
+        <v>435</v>
+      </c>
+      <c r="D131" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>436</v>
+      </c>
+      <c r="D132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>437</v>
+      </c>
+      <c r="D133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134">
+        <v>438</v>
+      </c>
+      <c r="D134" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>23</v>
+      </c>
+      <c r="B135" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135">
+        <v>439</v>
+      </c>
+      <c r="D135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136">
+        <v>440</v>
+      </c>
+      <c r="D136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>23</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>441</v>
+      </c>
+      <c r="D137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138">
+        <v>442</v>
+      </c>
+      <c r="D138" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>23</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>443</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>23</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>23</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>30</v>
+      </c>
+      <c r="D142" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>31</v>
+      </c>
+      <c r="D143" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>23</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144">
+        <v>32</v>
+      </c>
+      <c r="D144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>33</v>
+      </c>
+      <c r="D145" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147">
+        <v>35</v>
+      </c>
+      <c r="D147" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+      <c r="C149">
+        <v>37</v>
+      </c>
+      <c r="D149" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>38</v>
+      </c>
+      <c r="D150" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>39</v>
+      </c>
+      <c r="D151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>40</v>
+      </c>
+      <c r="D152" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>41</v>
+      </c>
+      <c r="D153" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154">
+        <v>42</v>
+      </c>
+      <c r="D154" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>43</v>
+      </c>
+      <c r="D155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>44</v>
+      </c>
+      <c r="D156" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>45</v>
+      </c>
+      <c r="D157" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>46</v>
+      </c>
+      <c r="D158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>23</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159">
+        <v>47</v>
+      </c>
+      <c r="D159" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>48</v>
+      </c>
+      <c r="D160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>23</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>49</v>
+      </c>
+      <c r="D161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>50</v>
+      </c>
+      <c r="D162" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>23</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>51</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164">
+        <v>52</v>
+      </c>
+      <c r="D164" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165">
+        <v>53</v>
+      </c>
+      <c r="D165" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>23</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166">
+        <v>54</v>
+      </c>
+      <c r="D166" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>23</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <v>55</v>
+      </c>
+      <c r="D167" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>56</v>
+      </c>
+      <c r="D168" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>23</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>57</v>
+      </c>
+      <c r="D169" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>23</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>58</v>
+      </c>
+      <c r="D170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>23</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171">
+        <v>59</v>
+      </c>
+      <c r="D171" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172">
+        <v>60</v>
+      </c>
+      <c r="D172" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>9</v>
+      </c>
+      <c r="C173">
+        <v>61</v>
+      </c>
+      <c r="D173" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174">
+        <v>62</v>
+      </c>
+      <c r="D174" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176">
+        <v>64</v>
+      </c>
+      <c r="D176" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177">
+        <v>65</v>
+      </c>
+      <c r="D177" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>66</v>
+      </c>
+      <c r="D178" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179">
+        <v>67</v>
+      </c>
+      <c r="D179" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181">
+        <v>69</v>
+      </c>
+      <c r="D181" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>70</v>
+      </c>
+      <c r="D182" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183">
+        <v>71</v>
+      </c>
+      <c r="D183" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>72</v>
+      </c>
+      <c r="D184" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" t="s">
+        <v>20</v>
+      </c>
+      <c r="C185">
+        <v>73</v>
+      </c>
+      <c r="D185" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>74</v>
+      </c>
+      <c r="D186" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>75</v>
+      </c>
+      <c r="D187" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>76</v>
+      </c>
+      <c r="D188" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189">
+        <v>77</v>
+      </c>
+      <c r="D189" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190">
+        <v>78</v>
+      </c>
+      <c r="D190" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191">
+        <v>79</v>
+      </c>
+      <c r="D191" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <v>80</v>
+      </c>
+      <c r="D192" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>81</v>
+      </c>
+      <c r="D193" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194">
+        <v>82</v>
+      </c>
+      <c r="D194" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>83</v>
+      </c>
+      <c r="D195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+      <c r="C196">
+        <v>84</v>
+      </c>
+      <c r="D196" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197">
+        <v>85</v>
+      </c>
+      <c r="D197" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" t="s">
+        <v>31</v>
+      </c>
+      <c r="C198">
+        <v>86</v>
+      </c>
+      <c r="D198" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199">
+        <v>87</v>
+      </c>
+      <c r="D199" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>88</v>
+      </c>
+      <c r="D200" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>89</v>
+      </c>
+      <c r="D201" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202">
+        <v>90</v>
+      </c>
+      <c r="D202" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203">
+        <v>91</v>
+      </c>
+      <c r="D203" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204">
+        <v>92</v>
+      </c>
+      <c r="D204" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205">
+        <v>93</v>
+      </c>
+      <c r="D205" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206">
+        <v>94</v>
+      </c>
+      <c r="D206" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207">
+        <v>95</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>96</v>
+      </c>
+      <c r="D208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209">
+        <v>97</v>
+      </c>
+      <c r="D209" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210">
+        <v>98</v>
+      </c>
+      <c r="D210" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211">
+        <v>99</v>
+      </c>
+      <c r="D211" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212">
+        <v>100</v>
+      </c>
+      <c r="D212" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213">
+        <v>101</v>
+      </c>
+      <c r="D213" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+      <c r="C214">
+        <v>102</v>
+      </c>
+      <c r="D214" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" t="s">
+        <v>14</v>
+      </c>
+      <c r="C215">
+        <v>103</v>
+      </c>
+      <c r="D215" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" t="s">
+        <v>20</v>
+      </c>
+      <c r="C216">
+        <v>104</v>
+      </c>
+      <c r="D216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <v>105</v>
+      </c>
+      <c r="D217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" t="s">
+        <v>18</v>
+      </c>
+      <c r="C218">
+        <v>106</v>
+      </c>
+      <c r="D218" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219">
+        <v>107</v>
+      </c>
+      <c r="D219" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" t="s">
+        <v>10</v>
+      </c>
+      <c r="C220">
+        <v>108</v>
+      </c>
+      <c r="D220" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>109</v>
+      </c>
+      <c r="D221" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222">
+        <v>110</v>
+      </c>
+      <c r="D222" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C223">
+        <v>111</v>
+      </c>
+      <c r="D223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224">
+        <v>112</v>
+      </c>
+      <c r="D224" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225">
+        <v>113</v>
+      </c>
+      <c r="D225" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>114</v>
+      </c>
+      <c r="D226" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>23</v>
+      </c>
+      <c r="B227" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227">
+        <v>115</v>
+      </c>
+      <c r="D227" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>23</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+      <c r="C228">
+        <v>116</v>
+      </c>
+      <c r="D228" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>23</v>
+      </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+      <c r="C229">
+        <v>117</v>
+      </c>
+      <c r="D229" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" t="s">
+        <v>15</v>
+      </c>
+      <c r="C230">
+        <v>118</v>
+      </c>
+      <c r="D230" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231">
+        <v>119</v>
+      </c>
+      <c r="D231" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>23</v>
+      </c>
+      <c r="B232" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232">
+        <v>120</v>
+      </c>
+      <c r="D232" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>121</v>
+      </c>
+      <c r="D233" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>23</v>
+      </c>
+      <c r="B234" t="s">
+        <v>28</v>
+      </c>
+      <c r="C234">
+        <v>122</v>
+      </c>
+      <c r="D234" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235">
+        <v>123</v>
+      </c>
+      <c r="D235" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236">
+        <v>124</v>
+      </c>
+      <c r="D236" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <v>125</v>
+      </c>
+      <c r="D237" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>23</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>126</v>
+      </c>
+      <c r="D238" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>23</v>
+      </c>
+      <c r="B239" t="s">
+        <v>20</v>
+      </c>
+      <c r="C239">
+        <v>127</v>
+      </c>
+      <c r="D239" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>23</v>
+      </c>
+      <c r="B240" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240">
+        <v>128</v>
+      </c>
+      <c r="D240" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>23</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241">
+        <v>129</v>
+      </c>
+      <c r="D241" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>23</v>
+      </c>
+      <c r="B242" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242">
+        <v>130</v>
+      </c>
+      <c r="D242" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>23</v>
+      </c>
+      <c r="B243" t="s">
+        <v>18</v>
+      </c>
+      <c r="C243">
+        <v>131</v>
+      </c>
+      <c r="D243" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>23</v>
+      </c>
+      <c r="B244" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244">
+        <v>132</v>
+      </c>
+      <c r="D244" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>23</v>
+      </c>
+      <c r="B245" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245">
+        <v>133</v>
+      </c>
+      <c r="D245" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>23</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246">
+        <v>134</v>
+      </c>
+      <c r="D246" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247">
+        <v>135</v>
+      </c>
+      <c r="D247" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>23</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248">
+        <v>136</v>
+      </c>
+      <c r="D248" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>23</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249">
+        <v>137</v>
+      </c>
+      <c r="D249" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>23</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250">
+        <v>138</v>
+      </c>
+      <c r="D250" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>23</v>
+      </c>
+      <c r="B251" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251">
+        <v>139</v>
+      </c>
+      <c r="D251" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>23</v>
+      </c>
+      <c r="B252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252">
+        <v>140</v>
+      </c>
+      <c r="D252" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>23</v>
+      </c>
+      <c r="B253" t="s">
+        <v>10</v>
+      </c>
+      <c r="C253">
+        <v>141</v>
+      </c>
+      <c r="D253" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>142</v>
+      </c>
+      <c r="D254" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>23</v>
+      </c>
+      <c r="B255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255">
+        <v>143</v>
+      </c>
+      <c r="D255" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256">
+        <v>144</v>
+      </c>
+      <c r="D256" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257">
+        <v>145</v>
+      </c>
+      <c r="D257" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>23</v>
+      </c>
+      <c r="B258" t="s">
+        <v>9</v>
+      </c>
+      <c r="C258">
+        <v>146</v>
+      </c>
+      <c r="D258" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>23</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259">
+        <v>147</v>
+      </c>
+      <c r="D259" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>23</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260">
+        <v>148</v>
+      </c>
+      <c r="D260" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>23</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261">
+        <v>149</v>
+      </c>
+      <c r="D261" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>23</v>
+      </c>
+      <c r="B262" t="s">
+        <v>31</v>
+      </c>
+      <c r="C262">
+        <v>150</v>
+      </c>
+      <c r="D262" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" t="s">
+        <v>16</v>
+      </c>
+      <c r="C263">
+        <v>151</v>
+      </c>
+      <c r="D263" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264">
+        <v>152</v>
+      </c>
+      <c r="D264" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>23</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265">
+        <v>153</v>
+      </c>
+      <c r="D265" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266">
+        <v>154</v>
+      </c>
+      <c r="D266" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" t="s">
+        <v>9</v>
+      </c>
+      <c r="C267">
+        <v>155</v>
+      </c>
+      <c r="D267" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>23</v>
+      </c>
+      <c r="B268" t="s">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>156</v>
+      </c>
+      <c r="D268" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>23</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269">
+        <v>157</v>
+      </c>
+      <c r="D269" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270">
+        <v>158</v>
+      </c>
+      <c r="D270" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>23</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271">
+        <v>159</v>
+      </c>
+      <c r="D271" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" t="s">
+        <v>9</v>
+      </c>
+      <c r="C272">
+        <v>160</v>
+      </c>
+      <c r="D272" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>23</v>
+      </c>
+      <c r="B273" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273">
+        <v>161</v>
+      </c>
+      <c r="D273" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>23</v>
+      </c>
+      <c r="B274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C274">
+        <v>162</v>
+      </c>
+      <c r="D274" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275">
+        <v>163</v>
+      </c>
+      <c r="D275" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>23</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276">
+        <v>164</v>
+      </c>
+      <c r="D276" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>23</v>
+      </c>
+      <c r="B277" t="s">
+        <v>31</v>
+      </c>
+      <c r="C277">
+        <v>165</v>
+      </c>
+      <c r="D277" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>23</v>
+      </c>
+      <c r="B278" t="s">
+        <v>19</v>
+      </c>
+      <c r="C278">
+        <v>166</v>
+      </c>
+      <c r="D278" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>23</v>
+      </c>
+      <c r="B279" t="s">
+        <v>25</v>
+      </c>
+      <c r="C279">
+        <v>167</v>
+      </c>
+      <c r="D279" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>23</v>
+      </c>
+      <c r="B280" t="s">
+        <v>10</v>
+      </c>
+      <c r="C280">
+        <v>168</v>
+      </c>
+      <c r="D280" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>23</v>
+      </c>
+      <c r="B281" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281">
+        <v>169</v>
+      </c>
+      <c r="D281" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>23</v>
+      </c>
+      <c r="B282" t="s">
+        <v>9</v>
+      </c>
+      <c r="C282">
+        <v>170</v>
+      </c>
+      <c r="D282" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>23</v>
+      </c>
+      <c r="B283" t="s">
+        <v>31</v>
+      </c>
+      <c r="C283">
+        <v>171</v>
+      </c>
+      <c r="D283" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>23</v>
+      </c>
+      <c r="B284" t="s">
+        <v>16</v>
+      </c>
+      <c r="C284">
+        <v>172</v>
+      </c>
+      <c r="D284" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>23</v>
+      </c>
+      <c r="B285" t="s">
+        <v>20</v>
+      </c>
+      <c r="C285">
+        <v>173</v>
+      </c>
+      <c r="D285" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>23</v>
+      </c>
+      <c r="B286" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286">
+        <v>174</v>
+      </c>
+      <c r="D286" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>23</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287">
+        <v>175</v>
+      </c>
+      <c r="D287" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288">
+        <v>176</v>
+      </c>
+      <c r="D288" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>23</v>
+      </c>
+      <c r="B289" t="s">
+        <v>15</v>
+      </c>
+      <c r="C289">
+        <v>177</v>
+      </c>
+      <c r="D289" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>23</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290">
+        <v>178</v>
+      </c>
+      <c r="D290" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>23</v>
+      </c>
+      <c r="B291" t="s">
+        <v>15</v>
+      </c>
+      <c r="C291">
+        <v>179</v>
+      </c>
+      <c r="D291" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>23</v>
+      </c>
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292">
+        <v>180</v>
+      </c>
+      <c r="D292" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>23</v>
+      </c>
+      <c r="B293" t="s">
+        <v>25</v>
+      </c>
+      <c r="C293">
+        <v>181</v>
+      </c>
+      <c r="D293" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" t="s">
+        <v>9</v>
+      </c>
+      <c r="C294">
+        <v>182</v>
+      </c>
+      <c r="D294" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>23</v>
+      </c>
+      <c r="B295" t="s">
+        <v>14</v>
+      </c>
+      <c r="C295">
+        <v>183</v>
+      </c>
+      <c r="D295" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296">
+        <v>184</v>
+      </c>
+      <c r="D296" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>23</v>
+      </c>
+      <c r="B297" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297">
+        <v>185</v>
+      </c>
+      <c r="D297" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>23</v>
+      </c>
+      <c r="B298" t="s">
+        <v>5</v>
+      </c>
+      <c r="C298">
+        <v>186</v>
+      </c>
+      <c r="D298" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>23</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299">
+        <v>187</v>
+      </c>
+      <c r="D299" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>23</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300">
+        <v>188</v>
+      </c>
+      <c r="D300" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>23</v>
+      </c>
+      <c r="B301" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301">
+        <v>189</v>
+      </c>
+      <c r="D301" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>23</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302">
+        <v>190</v>
+      </c>
+      <c r="D302" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>23</v>
+      </c>
+      <c r="B303" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303">
+        <v>191</v>
+      </c>
+      <c r="D303" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304">
+        <v>192</v>
+      </c>
+      <c r="D304" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>23</v>
+      </c>
+      <c r="B305" t="s">
+        <v>31</v>
+      </c>
+      <c r="C305">
+        <v>193</v>
+      </c>
+      <c r="D305" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>23</v>
+      </c>
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306">
+        <v>194</v>
+      </c>
+      <c r="D306" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>23</v>
+      </c>
+      <c r="B307" t="s">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>195</v>
+      </c>
+      <c r="D307" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308">
+        <v>196</v>
+      </c>
+      <c r="D308" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>23</v>
+      </c>
+      <c r="B309" t="s">
+        <v>31</v>
+      </c>
+      <c r="C309">
+        <v>197</v>
+      </c>
+      <c r="D309" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>23</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310">
+        <v>198</v>
+      </c>
+      <c r="D310" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>23</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311">
+        <v>199</v>
+      </c>
+      <c r="D311" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>23</v>
+      </c>
+      <c r="B312" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>200</v>
+      </c>
+      <c r="D312" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>23</v>
+      </c>
+      <c r="B313" t="s">
+        <v>31</v>
+      </c>
+      <c r="C313">
+        <v>201</v>
+      </c>
+      <c r="D313" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" t="s">
+        <v>25</v>
+      </c>
+      <c r="C314">
+        <v>202</v>
+      </c>
+      <c r="D314" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>23</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315">
+        <v>203</v>
+      </c>
+      <c r="D315" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>23</v>
+      </c>
+      <c r="B316" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316">
+        <v>204</v>
+      </c>
+      <c r="D316" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>23</v>
+      </c>
+      <c r="B317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317">
+        <v>205</v>
+      </c>
+      <c r="D317" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>23</v>
+      </c>
+      <c r="B318" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318">
+        <v>206</v>
+      </c>
+      <c r="D318" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>23</v>
+      </c>
+      <c r="B319" t="s">
+        <v>8</v>
+      </c>
+      <c r="C319">
+        <v>207</v>
+      </c>
+      <c r="D319" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>23</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320">
+        <v>208</v>
+      </c>
+      <c r="D320" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>23</v>
+      </c>
+      <c r="B321" t="s">
+        <v>15</v>
+      </c>
+      <c r="C321">
+        <v>209</v>
+      </c>
+      <c r="D321" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B322" t="s">
+        <v>31</v>
+      </c>
+      <c r="C322">
+        <v>210</v>
+      </c>
+      <c r="D322" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>23</v>
+      </c>
+      <c r="B323" t="s">
+        <v>16</v>
+      </c>
+      <c r="C323">
+        <v>211</v>
+      </c>
+      <c r="D323" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>23</v>
+      </c>
+      <c r="B324" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324">
+        <v>212</v>
+      </c>
+      <c r="D324" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>23</v>
+      </c>
+      <c r="B325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325">
+        <v>213</v>
+      </c>
+      <c r="D325" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>23</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326">
+        <v>214</v>
+      </c>
+      <c r="D326" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>23</v>
+      </c>
+      <c r="B327" t="s">
+        <v>9</v>
+      </c>
+      <c r="C327">
+        <v>215</v>
+      </c>
+      <c r="D327" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>23</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328">
+        <v>216</v>
+      </c>
+      <c r="D328" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>23</v>
+      </c>
+      <c r="B329" t="s">
+        <v>24</v>
+      </c>
+      <c r="C329">
+        <v>217</v>
+      </c>
+      <c r="D329" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>23</v>
+      </c>
+      <c r="B330" t="s">
+        <v>17</v>
+      </c>
+      <c r="C330">
+        <v>218</v>
+      </c>
+      <c r="D330" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>23</v>
+      </c>
+      <c r="B331" t="s">
+        <v>16</v>
+      </c>
+      <c r="C331">
+        <v>219</v>
+      </c>
+      <c r="D331" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>23</v>
+      </c>
+      <c r="B332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332">
+        <v>220</v>
+      </c>
+      <c r="D332" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>23</v>
+      </c>
+      <c r="B333" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333">
+        <v>221</v>
+      </c>
+      <c r="D333" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>23</v>
+      </c>
+      <c r="B334" t="s">
+        <v>18</v>
+      </c>
+      <c r="C334">
+        <v>222</v>
+      </c>
+      <c r="D334" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>23</v>
+      </c>
+      <c r="B335" t="s">
+        <v>24</v>
+      </c>
+      <c r="C335">
+        <v>223</v>
+      </c>
+      <c r="D335" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>23</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336">
+        <v>224</v>
+      </c>
+      <c r="D336" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>23</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337">
+        <v>225</v>
+      </c>
+      <c r="D337" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>23</v>
+      </c>
+      <c r="B338" t="s">
+        <v>16</v>
+      </c>
+      <c r="C338">
+        <v>226</v>
+      </c>
+      <c r="D338" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>23</v>
+      </c>
+      <c r="B339" t="s">
+        <v>5</v>
+      </c>
+      <c r="C339">
+        <v>227</v>
+      </c>
+      <c r="D339" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>23</v>
+      </c>
+      <c r="B340" t="s">
+        <v>18</v>
+      </c>
+      <c r="C340">
+        <v>228</v>
+      </c>
+      <c r="D340" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>23</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341">
+        <v>229</v>
+      </c>
+      <c r="D341" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>23</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342">
+        <v>230</v>
+      </c>
+      <c r="D342" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>23</v>
+      </c>
+      <c r="B343" t="s">
+        <v>24</v>
+      </c>
+      <c r="C343">
+        <v>231</v>
+      </c>
+      <c r="D343" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>23</v>
+      </c>
+      <c r="B344" t="s">
+        <v>5</v>
+      </c>
+      <c r="C344">
+        <v>232</v>
+      </c>
+      <c r="D344" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>23</v>
+      </c>
+      <c r="B345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C345">
+        <v>233</v>
+      </c>
+      <c r="D345" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346">
+        <v>234</v>
+      </c>
+      <c r="D346" t="s">
+        <v>34</v>
+      </c>
+      <c r="E346" s="1"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>23</v>
+      </c>
+      <c r="B347" t="s">
+        <v>18</v>
+      </c>
+      <c r="C347">
+        <v>235</v>
+      </c>
+      <c r="D347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>23</v>
+      </c>
+      <c r="B348" t="s">
+        <v>31</v>
+      </c>
+      <c r="C348">
+        <v>236</v>
+      </c>
+      <c r="D348" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>23</v>
+      </c>
+      <c r="B349" t="s">
+        <v>17</v>
+      </c>
+      <c r="C349">
+        <v>237</v>
+      </c>
+      <c r="D349" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>23</v>
+      </c>
+      <c r="B350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350">
+        <v>238</v>
+      </c>
+      <c r="D350" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>23</v>
+      </c>
+      <c r="B351" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351">
+        <v>239</v>
+      </c>
+      <c r="D351" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>23</v>
+      </c>
+      <c r="B352" t="s">
+        <v>10</v>
+      </c>
+      <c r="C352">
+        <v>240</v>
+      </c>
+      <c r="D352" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>23</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353">
+        <v>241</v>
+      </c>
+      <c r="D353" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>23</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354">
+        <v>242</v>
+      </c>
+      <c r="D354" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>23</v>
+      </c>
+      <c r="B355" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355">
+        <v>243</v>
+      </c>
+      <c r="D355" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>23</v>
+      </c>
+      <c r="B356" t="s">
+        <v>20</v>
+      </c>
+      <c r="C356">
+        <v>244</v>
+      </c>
+      <c r="D356" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>23</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+      <c r="C357">
+        <v>245</v>
+      </c>
+      <c r="D357" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>23</v>
+      </c>
+      <c r="B358" t="s">
+        <v>9</v>
+      </c>
+      <c r="C358">
+        <v>246</v>
+      </c>
+      <c r="D358" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>23</v>
+      </c>
+      <c r="B359" t="s">
+        <v>14</v>
+      </c>
+      <c r="C359">
+        <v>247</v>
+      </c>
+      <c r="D359" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>23</v>
+      </c>
+      <c r="B360" t="s">
+        <v>13</v>
+      </c>
+      <c r="C360">
+        <v>248</v>
+      </c>
+      <c r="D360" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>23</v>
+      </c>
+      <c r="B361" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361">
+        <v>249</v>
+      </c>
+      <c r="D361" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>23</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362">
+        <v>250</v>
+      </c>
+      <c r="D362" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>23</v>
+      </c>
+      <c r="B363" t="s">
+        <v>18</v>
+      </c>
+      <c r="C363">
+        <v>251</v>
+      </c>
+      <c r="D363" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>23</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364">
+        <v>335</v>
+      </c>
+      <c r="D364" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>23</v>
+      </c>
+      <c r="B365" t="s">
+        <v>17</v>
+      </c>
+      <c r="C365">
+        <v>336</v>
+      </c>
+      <c r="D365" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>23</v>
+      </c>
+      <c r="B366" t="s">
+        <v>20</v>
+      </c>
+      <c r="C366">
+        <v>337</v>
+      </c>
+      <c r="D366" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>23</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367">
+        <v>338</v>
+      </c>
+      <c r="D367" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>23</v>
+      </c>
+      <c r="B368" t="s">
+        <v>14</v>
+      </c>
+      <c r="C368">
+        <v>339</v>
+      </c>
+      <c r="D368" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>23</v>
+      </c>
+      <c r="B369" t="s">
+        <v>13</v>
+      </c>
+      <c r="C369">
+        <v>340</v>
+      </c>
+      <c r="D369" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>23</v>
+      </c>
+      <c r="B370" t="s">
+        <v>18</v>
+      </c>
+      <c r="C370">
+        <v>341</v>
+      </c>
+      <c r="D370" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>23</v>
+      </c>
+      <c r="B371" t="s">
+        <v>17</v>
+      </c>
+      <c r="C371">
+        <v>342</v>
+      </c>
+      <c r="D371" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+      <c r="C372">
+        <v>343</v>
+      </c>
+      <c r="D372" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>23</v>
+      </c>
+      <c r="B373" t="s">
+        <v>28</v>
+      </c>
+      <c r="C373">
+        <v>344</v>
+      </c>
+      <c r="D373" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>23</v>
+      </c>
+      <c r="B374" t="s">
+        <v>16</v>
+      </c>
+      <c r="C374">
+        <v>345</v>
+      </c>
+      <c r="D374" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>23</v>
+      </c>
+      <c r="B375" t="s">
+        <v>18</v>
+      </c>
+      <c r="C375">
+        <v>346</v>
+      </c>
+      <c r="D375" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>23</v>
+      </c>
+      <c r="B376" t="s">
+        <v>14</v>
+      </c>
+      <c r="C376">
+        <v>347</v>
+      </c>
+      <c r="D376" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>23</v>
+      </c>
+      <c r="B377" t="s">
+        <v>5</v>
+      </c>
+      <c r="C377">
+        <v>348</v>
+      </c>
+      <c r="D377" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>23</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378">
+        <v>349</v>
+      </c>
+      <c r="D378" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>23</v>
+      </c>
+      <c r="B379" t="s">
+        <v>8</v>
+      </c>
+      <c r="C379">
+        <v>350</v>
+      </c>
+      <c r="D379" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>23</v>
+      </c>
+      <c r="B380" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380">
+        <v>351</v>
+      </c>
+      <c r="D380" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>23</v>
+      </c>
+      <c r="B381" t="s">
+        <v>31</v>
+      </c>
+      <c r="C381">
+        <v>352</v>
+      </c>
+      <c r="D381" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>23</v>
+      </c>
+      <c r="B382" t="s">
+        <v>14</v>
+      </c>
+      <c r="C382">
+        <v>353</v>
+      </c>
+      <c r="D382" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>23</v>
+      </c>
+      <c r="B383" t="s">
+        <v>25</v>
+      </c>
+      <c r="C383">
+        <v>354</v>
+      </c>
+      <c r="D383" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>23</v>
+      </c>
+      <c r="B384" t="s">
+        <v>14</v>
+      </c>
+      <c r="C384">
+        <v>355</v>
+      </c>
+      <c r="D384" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>23</v>
+      </c>
+      <c r="B385" t="s">
+        <v>14</v>
+      </c>
+      <c r="C385">
+        <v>356</v>
+      </c>
+      <c r="D385" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>23</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386">
+        <v>357</v>
+      </c>
+      <c r="D386" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>23</v>
+      </c>
+      <c r="B387" t="s">
+        <v>14</v>
+      </c>
+      <c r="C387">
+        <v>358</v>
+      </c>
+      <c r="D387" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>23</v>
+      </c>
+      <c r="B388" t="s">
+        <v>16</v>
+      </c>
+      <c r="C388">
+        <v>359</v>
+      </c>
+      <c r="D388" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>23</v>
+      </c>
+      <c r="B389" t="s">
+        <v>25</v>
+      </c>
+      <c r="C389">
+        <v>360</v>
+      </c>
+      <c r="D389" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>23</v>
+      </c>
+      <c r="B390" t="s">
+        <v>9</v>
+      </c>
+      <c r="C390">
+        <v>361</v>
+      </c>
+      <c r="D390" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>23</v>
+      </c>
+      <c r="B391" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391">
+        <v>362</v>
+      </c>
+      <c r="D391" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>23</v>
+      </c>
+      <c r="B392" t="s">
+        <v>14</v>
+      </c>
+      <c r="C392">
+        <v>363</v>
+      </c>
+      <c r="D392" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>23</v>
+      </c>
+      <c r="B393" t="s">
+        <v>14</v>
+      </c>
+      <c r="C393">
+        <v>364</v>
+      </c>
+      <c r="D393" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>23</v>
+      </c>
+      <c r="B394" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394">
+        <v>365</v>
+      </c>
+      <c r="D394" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>23</v>
+      </c>
+      <c r="B395" t="s">
+        <v>11</v>
+      </c>
+      <c r="C395">
+        <v>366</v>
+      </c>
+      <c r="D395" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>23</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+      <c r="C396">
+        <v>367</v>
+      </c>
+      <c r="D396" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>23</v>
+      </c>
+      <c r="B397" t="s">
+        <v>17</v>
+      </c>
+      <c r="C397">
+        <v>368</v>
+      </c>
+      <c r="D397" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>23</v>
+      </c>
+      <c r="B398" t="s">
+        <v>15</v>
+      </c>
+      <c r="C398">
+        <v>369</v>
+      </c>
+      <c r="D398" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>23</v>
+      </c>
+      <c r="B399" t="s">
+        <v>25</v>
+      </c>
+      <c r="C399">
+        <v>370</v>
+      </c>
+      <c r="D399" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>23</v>
+      </c>
+      <c r="B400" t="s">
+        <v>7</v>
+      </c>
+      <c r="C400">
+        <v>371</v>
+      </c>
+      <c r="D400" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>23</v>
+      </c>
+      <c r="B401" t="s">
+        <v>15</v>
+      </c>
+      <c r="C401">
+        <v>372</v>
+      </c>
+      <c r="D401" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>23</v>
+      </c>
+      <c r="B402" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402">
+        <v>373</v>
+      </c>
+      <c r="D402" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>23</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403">
+        <v>374</v>
+      </c>
+      <c r="D403" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>23</v>
+      </c>
+      <c r="B404" t="s">
+        <v>17</v>
+      </c>
+      <c r="C404">
+        <v>375</v>
+      </c>
+      <c r="D404" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>23</v>
+      </c>
+      <c r="B405" t="s">
+        <v>7</v>
+      </c>
+      <c r="C405">
+        <v>376</v>
+      </c>
+      <c r="D405" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>23</v>
+      </c>
+      <c r="B406" t="s">
+        <v>25</v>
+      </c>
+      <c r="C406">
+        <v>377</v>
+      </c>
+      <c r="D406" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>23</v>
+      </c>
+      <c r="B407" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407">
+        <v>378</v>
+      </c>
+      <c r="D407" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>23</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408">
+        <v>379</v>
+      </c>
+      <c r="D408" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>23</v>
+      </c>
+      <c r="B409" t="s">
+        <v>15</v>
+      </c>
+      <c r="C409">
+        <v>380</v>
+      </c>
+      <c r="D409" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>23</v>
+      </c>
+      <c r="B410" t="s">
+        <v>13</v>
+      </c>
+      <c r="C410">
+        <v>381</v>
+      </c>
+      <c r="D410" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>23</v>
+      </c>
+      <c r="B411" t="s">
+        <v>18</v>
+      </c>
+      <c r="C411">
+        <v>382</v>
+      </c>
+      <c r="D411" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>23</v>
+      </c>
+      <c r="B412" t="s">
+        <v>16</v>
+      </c>
+      <c r="C412">
+        <v>383</v>
+      </c>
+      <c r="D412" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>23</v>
+      </c>
+      <c r="B413" t="s">
+        <v>25</v>
+      </c>
+      <c r="C413">
+        <v>384</v>
+      </c>
+      <c r="D413" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>23</v>
+      </c>
+      <c r="B414" t="s">
+        <v>18</v>
+      </c>
+      <c r="C414">
+        <v>385</v>
+      </c>
+      <c r="D414" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>23</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415">
+        <v>386</v>
+      </c>
+      <c r="D415" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>23</v>
+      </c>
+      <c r="B416" t="s">
+        <v>15</v>
+      </c>
+      <c r="C416">
+        <v>387</v>
+      </c>
+      <c r="D416" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>23</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417">
+        <v>388</v>
+      </c>
+      <c r="D417" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>23</v>
+      </c>
+      <c r="B418" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418">
+        <v>389</v>
+      </c>
+      <c r="D418" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>23</v>
+      </c>
+      <c r="B419" t="s">
+        <v>15</v>
+      </c>
+      <c r="C419">
+        <v>390</v>
+      </c>
+      <c r="D419" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>23</v>
+      </c>
+      <c r="B420" t="s">
+        <v>14</v>
+      </c>
+      <c r="C420">
+        <v>391</v>
+      </c>
+      <c r="D420" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>23</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421">
+        <v>392</v>
+      </c>
+      <c r="D421" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>23</v>
+      </c>
+      <c r="B422" t="s">
+        <v>15</v>
+      </c>
+      <c r="C422">
+        <v>393</v>
+      </c>
+      <c r="D422" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>23</v>
+      </c>
+      <c r="B423" t="s">
+        <v>7</v>
+      </c>
+      <c r="C423">
+        <v>394</v>
+      </c>
+      <c r="D423" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>23</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424">
+        <v>395</v>
+      </c>
+      <c r="D424" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>23</v>
+      </c>
+      <c r="B425" t="s">
+        <v>31</v>
+      </c>
+      <c r="C425">
+        <v>396</v>
+      </c>
+      <c r="D425" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>23</v>
+      </c>
+      <c r="B426" t="s">
+        <v>25</v>
+      </c>
+      <c r="C426">
+        <v>397</v>
+      </c>
+      <c r="D426" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>23</v>
+      </c>
+      <c r="B427" t="s">
+        <v>14</v>
+      </c>
+      <c r="C427">
+        <v>398</v>
+      </c>
+      <c r="D427" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>23</v>
+      </c>
+      <c r="B428" t="s">
+        <v>31</v>
+      </c>
+      <c r="C428">
+        <v>399</v>
+      </c>
+      <c r="D428" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>23</v>
+      </c>
+      <c r="B429" t="s">
+        <v>8</v>
+      </c>
+      <c r="C429">
+        <v>400</v>
+      </c>
+      <c r="D429" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>23</v>
+      </c>
+      <c r="B430" t="s">
+        <v>14</v>
+      </c>
+      <c r="C430">
+        <v>401</v>
+      </c>
+      <c r="D430" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>23</v>
+      </c>
+      <c r="B431" t="s">
+        <v>25</v>
+      </c>
+      <c r="C431">
+        <v>402</v>
+      </c>
+      <c r="D431" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>23</v>
+      </c>
+      <c r="B432" t="s">
+        <v>31</v>
+      </c>
+      <c r="C432">
+        <v>403</v>
+      </c>
+      <c r="D432" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>23</v>
+      </c>
+      <c r="B433" t="s">
+        <v>7</v>
+      </c>
+      <c r="C433">
+        <v>404</v>
+      </c>
+      <c r="D433" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>23</v>
+      </c>
+      <c r="B434" t="s">
+        <v>14</v>
+      </c>
+      <c r="C434">
+        <v>405</v>
+      </c>
+      <c r="D434" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>23</v>
+      </c>
+      <c r="B435" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435">
+        <v>406</v>
+      </c>
+      <c r="D435" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>23</v>
+      </c>
+      <c r="B436" t="s">
+        <v>25</v>
+      </c>
+      <c r="C436">
+        <v>407</v>
+      </c>
+      <c r="D436" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>23</v>
+      </c>
+      <c r="B437" t="s">
+        <v>31</v>
+      </c>
+      <c r="C437">
+        <v>408</v>
+      </c>
+      <c r="D437" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>23</v>
+      </c>
+      <c r="B438" t="s">
+        <v>25</v>
+      </c>
+      <c r="C438">
+        <v>409</v>
+      </c>
+      <c r="D438" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>23</v>
+      </c>
+      <c r="B439" t="s">
+        <v>14</v>
+      </c>
+      <c r="C439">
+        <v>410</v>
+      </c>
+      <c r="D439" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>23</v>
+      </c>
+      <c r="B440" t="s">
+        <v>14</v>
+      </c>
+      <c r="C440">
+        <v>411</v>
+      </c>
+      <c r="D440" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>23</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441">
+        <v>412</v>
+      </c>
+      <c r="D441" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>23</v>
+      </c>
+      <c r="B442" t="s">
+        <v>20</v>
+      </c>
+      <c r="C442">
+        <v>413</v>
+      </c>
+      <c r="D442" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>23</v>
+      </c>
+      <c r="B443" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443">
+        <v>414</v>
+      </c>
+      <c r="D443" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>23</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444">
+        <v>415</v>
+      </c>
+      <c r="D444" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>23</v>
+      </c>
+      <c r="B445" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445">
+        <v>416</v>
+      </c>
+      <c r="D445" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>23</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446">
+        <v>417</v>
+      </c>
+      <c r="D446" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>23</v>
+      </c>
+      <c r="B447" t="s">
+        <v>14</v>
+      </c>
+      <c r="C447">
+        <v>418</v>
+      </c>
+      <c r="D447" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>23</v>
+      </c>
+      <c r="B448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448">
+        <v>419</v>
+      </c>
+      <c r="D448" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>23</v>
+      </c>
+      <c r="B449" t="s">
+        <v>16</v>
+      </c>
+      <c r="C449">
+        <v>420</v>
+      </c>
+      <c r="D449" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>23</v>
+      </c>
+      <c r="B450" t="s">
+        <v>13</v>
+      </c>
+      <c r="C450">
+        <v>421</v>
+      </c>
+      <c r="D450" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Structural_elements.xlsx
+++ b/Structural_elements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jure\Documents\GitHub\gnomAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Desktop\gnomAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D7A250-C2F2-48C2-BAD9-E837F7B46D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39ECE5-0260-4968-8FDC-2242E7D848B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{305C21C7-1A04-4DBA-9567-462A5CECA9AB}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,13 +154,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCCCCCC"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,12 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,9 +196,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +236,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -500,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C37D856-6B35-4E0C-B741-088E4C9F9DFB}">
-  <dimension ref="A1:F450"/>
+  <dimension ref="A1:D450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="F335" sqref="F335"/>
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -2095,7 +2087,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -2109,7 +2101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -2123,7 +2115,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -2137,7 +2129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -2151,7 +2143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -2165,7 +2157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -2179,7 +2171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -2193,7 +2185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -2206,9 +2198,8 @@
       <c r="D121" t="s">
         <v>33</v>
       </c>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -2222,7 +2213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -2236,7 +2227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -2250,7 +2241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +2255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -2278,7 +2269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -2292,7 +2283,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -5218,7 +5209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>23</v>
       </c>
@@ -5232,7 +5223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -5246,7 +5237,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>23</v>
       </c>
@@ -5260,7 +5251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -5274,7 +5265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>23</v>
       </c>
@@ -5288,7 +5279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>23</v>
       </c>
@@ -5302,7 +5293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>23</v>
       </c>
@@ -5316,7 +5307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -5330,7 +5321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>23</v>
       </c>
@@ -5344,7 +5335,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>23</v>
       </c>
@@ -5357,9 +5348,8 @@
       <c r="D346" t="s">
         <v>34</v>
       </c>
-      <c r="E346" s="1"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -5373,7 +5363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>23</v>
       </c>
@@ -5387,7 +5377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -5401,7 +5391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>23</v>
       </c>
@@ -5415,7 +5405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>23</v>
       </c>
@@ -5429,7 +5419,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>23</v>
       </c>

--- a/Structural_elements.xlsx
+++ b/Structural_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jure\Desktop\gnomAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jure\Documents\GitHub\gnomAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E39ECE5-0260-4968-8FDC-2242E7D848B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D94D1EE-0DF4-429A-BB59-6A86EFFAF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{305C21C7-1A04-4DBA-9567-462A5CECA9AB}"/>
+    <workbookView xWindow="-45120" yWindow="-7680" windowWidth="16440" windowHeight="28440" xr2:uid="{305C21C7-1A04-4DBA-9567-462A5CECA9AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Structural_elements" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="31">
   <si>
     <t>Gene</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>BS</t>
-  </si>
-  <si>
-    <t>GABRB2</t>
   </si>
   <si>
     <t>S</t>
@@ -90,12 +87,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>uTMD_principal_extended</t>
-  </si>
-  <si>
-    <t>uTMD_principal_close</t>
-  </si>
-  <si>
     <t>GABRA1</t>
   </si>
   <si>
@@ -103,12 +94,6 @@
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>uTMD_complementary_extended</t>
-  </si>
-  <si>
-    <t>uTMD_complementary_close</t>
   </si>
   <si>
     <t>W</t>
@@ -180,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -196,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -342,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C37D856-6B35-4E0C-B741-088E4C9F9DFB}">
-  <dimension ref="A1:D450"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="G330" sqref="G330"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,629 +506,629 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
       <c r="C18">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
       <c r="C21">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C32">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C38">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C41">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>298</v>
+      </c>
+      <c r="D43" t="s">
         <v>25</v>
-      </c>
-      <c r="C43">
-        <v>260</v>
-      </c>
-      <c r="D43" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C45">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s">
         <v>27</v>
@@ -1151,5658 +1136,4958 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C47">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
       <c r="C48">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>266</v>
+        <v>316</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>267</v>
+        <v>317</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C51">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>254</v>
+        <v>321</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>255</v>
+        <v>322</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C56">
-        <v>256</v>
+        <v>323</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>257</v>
+        <v>324</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C58">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C60">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C63">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C64">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C65">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68">
-        <v>268</v>
+        <v>422</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>269</v>
+        <v>423</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C70">
-        <v>270</v>
+        <v>424</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
       <c r="C71">
-        <v>271</v>
+        <v>425</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C72">
-        <v>272</v>
+        <v>426</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73">
+        <v>427</v>
+      </c>
+      <c r="D73" t="s">
         <v>28</v>
-      </c>
-      <c r="C73">
-        <v>273</v>
-      </c>
-      <c r="D73" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C74">
-        <v>279</v>
+        <v>428</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>280</v>
+        <v>429</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>281</v>
+        <v>430</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C77">
-        <v>282</v>
+        <v>431</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C78">
-        <v>283</v>
+        <v>432</v>
       </c>
       <c r="D78" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79">
-        <v>284</v>
+        <v>433</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80">
-        <v>285</v>
+        <v>434</v>
       </c>
       <c r="D80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>286</v>
+        <v>435</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82">
-        <v>287</v>
+        <v>436</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83">
-        <v>288</v>
+        <v>437</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>289</v>
+        <v>438</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" t="s">
         <v>23</v>
       </c>
-      <c r="B85" t="s">
-        <v>8</v>
-      </c>
       <c r="C85">
-        <v>290</v>
+        <v>439</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C86">
-        <v>291</v>
+        <v>440</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="D87" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C88">
-        <v>293</v>
+        <v>442</v>
       </c>
       <c r="D88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>294</v>
+        <v>443</v>
       </c>
       <c r="D89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C90">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C91">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>297</v>
+        <v>30</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C94">
-        <v>299</v>
+        <v>32</v>
       </c>
       <c r="D94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B95" t="s">
         <v>15</v>
       </c>
       <c r="C95">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C96">
-        <v>313</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>314</v>
+        <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C98">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C99">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>317</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C103">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C104">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="D104" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>322</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C106">
-        <v>323</v>
+        <v>44</v>
       </c>
       <c r="D106" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="D107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>325</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>326</v>
+        <v>47</v>
       </c>
       <c r="D109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>327</v>
+        <v>48</v>
       </c>
       <c r="D110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111">
-        <v>328</v>
+        <v>49</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C113">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="D113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C114">
-        <v>331</v>
+        <v>52</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="D115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C116">
-        <v>333</v>
+        <v>54</v>
       </c>
       <c r="D116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>334</v>
+        <v>55</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C118">
-        <v>422</v>
+        <v>56</v>
       </c>
       <c r="D118" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>423</v>
+        <v>57</v>
       </c>
       <c r="D119" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C120">
-        <v>424</v>
+        <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C121">
-        <v>425</v>
+        <v>59</v>
       </c>
       <c r="D121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C122">
-        <v>426</v>
+        <v>60</v>
       </c>
       <c r="D122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>427</v>
+        <v>61</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C124">
-        <v>428</v>
+        <v>62</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C125">
-        <v>429</v>
+        <v>63</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C126">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C127">
-        <v>431</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>432</v>
+        <v>66</v>
       </c>
       <c r="D128" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C129">
-        <v>433</v>
+        <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C130">
-        <v>434</v>
+        <v>68</v>
       </c>
       <c r="D130" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C131">
-        <v>435</v>
+        <v>69</v>
       </c>
       <c r="D131" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>436</v>
+        <v>70</v>
       </c>
       <c r="D132" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C133">
-        <v>437</v>
+        <v>71</v>
       </c>
       <c r="D133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C134">
-        <v>438</v>
+        <v>72</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C135">
-        <v>439</v>
+        <v>73</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C136">
-        <v>440</v>
+        <v>74</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>441</v>
+        <v>75</v>
       </c>
       <c r="D137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>442</v>
+        <v>76</v>
       </c>
       <c r="D138" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C139">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="D139" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C140">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D140" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C141">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D141" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D142" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D143" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C144">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="D144" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D145" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C146">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D146" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B147" t="s">
         <v>9</v>
       </c>
       <c r="C147">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D147" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C148">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D149" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C150">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D150" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C151">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D151" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D152" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D153" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C154">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D154" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D155" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C156">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D156" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D157" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C158">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="D158" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" t="s">
         <v>23</v>
       </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
       <c r="C159">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="D159" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
       </c>
       <c r="C160">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D160" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C161">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D161" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C162">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D162" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C163">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D163" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C164">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="D164" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C165">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="D165" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B166" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C166">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C167">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="D167" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C168">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D168" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C169">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D169" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D170" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B171" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C171">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="D171" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C172">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D172" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C173">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D173" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C174">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D174" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C175">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="D175" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C176">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D176" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C177">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D177" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D178" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C179">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="D179" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C180">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D180" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C181">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D181" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C182">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D182" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C183">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D183" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>20</v>
+      </c>
+      <c r="B184" t="s">
         <v>23</v>
       </c>
-      <c r="B184" t="s">
-        <v>6</v>
-      </c>
       <c r="C184">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="D184" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B185" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C185">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D185" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C186">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D186" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C187">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D187" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D188" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C189">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D189" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C190">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D190" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C191">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D191" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C192">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="D192" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C193">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="D193" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C194">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="D194" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C195">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="D195" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D196" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C197">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="D197" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B198" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D198" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B199" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C199">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="D199" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C200">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="D200" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C201">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="D201" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="D202" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="D203" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C204">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="D204" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C205">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="D205" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B206" t="s">
         <v>13</v>
       </c>
       <c r="C206">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="D206" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C207">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D207" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C209">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="D209" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C210">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D210" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C211">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="D211" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C212">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D212" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C213">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D213" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C214">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D214" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="D215" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B216" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D216" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C217">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="D217" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B218" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C218">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D218" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B219" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C219">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="D219" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C220">
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="D220" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C221">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="D221" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
       </c>
       <c r="C222">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="D222" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C223">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="D223" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C224">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="D224" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C225">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="D225" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C226">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="D226" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C227">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D227" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C228">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="D228" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C229">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D229" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C230">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="D230" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C231">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="D231" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C232">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="D232" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C233">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="D233" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C234">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="D234" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C235">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="D235" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C236">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="D236" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C237">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="D237" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C238">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="D238" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B239" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C239">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="D239" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B240" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C240">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="D240" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C241">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="D241" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C242">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="D242" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C243">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="D243" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C244">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="D244" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D245" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C246">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="D246" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C247">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="D247" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C248">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="D248" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C249">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="D249" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B250" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C250">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D250" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C251">
-        <v>139</v>
+        <v>189</v>
       </c>
       <c r="D251" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="D252" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C253">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="D253" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B254" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C254">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="D254" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C255">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="D255" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C256">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="D256" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C257">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="D257" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C258">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="D258" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C259">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="D259" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>20</v>
+      </c>
+      <c r="B260" t="s">
         <v>23</v>
       </c>
-      <c r="B260" t="s">
-        <v>6</v>
-      </c>
       <c r="C260">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="D260" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B261" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C261">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="D261" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B262" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C262">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D262" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C263">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D263" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C264">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="D264" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B265" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C265">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="D265" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C266">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="D266" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C267">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="D267" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B268" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C268">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="D268" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
       </c>
       <c r="C269">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="D269" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B270" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C270">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="D270" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C271">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="D271" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C272">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="D272" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C273">
-        <v>161</v>
+        <v>211</v>
       </c>
       <c r="D273" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B274" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C274">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="D274" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C275">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="D275" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C276">
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="D276" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B277" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C277">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="D277" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B278" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C278">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="D278" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B279" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C279">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="D279" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C280">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="D280" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C281">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="D281" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C282">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D282" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B283" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C283">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="D283" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C284">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D284" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B285" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C285">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="D285" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B286" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="D286" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="D287" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C288">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="D288" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B289" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C289">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="D289" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C290">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="D290" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C291">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="D291" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B292" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C292">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="D292" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B293" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C293">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="D293" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C294">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="D294" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B295" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C295">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="D295" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B296" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C296">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="D296" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C297">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="D297" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B298" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C298">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="D298" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C299">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="D299" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C300">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="D300" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C301">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="D301" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C302">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="D302" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C303">
-        <v>191</v>
+        <v>241</v>
       </c>
       <c r="D303" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C304">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="D304" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B305" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C305">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="D305" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B306" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C306">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="D306" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B307" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C307">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="D307" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B308" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C308">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="D308" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B309" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C309">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="D309" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B310" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C310">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D310" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B311" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C311">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="D311" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C312">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="D312" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B313" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C313">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="D313" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B314" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>202</v>
+        <v>335</v>
       </c>
       <c r="D314" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C315">
-        <v>203</v>
+        <v>336</v>
       </c>
       <c r="D315" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C316">
-        <v>204</v>
+        <v>337</v>
       </c>
       <c r="D316" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B317" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C317">
-        <v>205</v>
+        <v>338</v>
       </c>
       <c r="D317" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B318" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C318">
-        <v>206</v>
+        <v>339</v>
       </c>
       <c r="D318" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B319" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C319">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="D319" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B320" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C320">
-        <v>208</v>
+        <v>341</v>
       </c>
       <c r="D320" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C321">
-        <v>209</v>
+        <v>342</v>
       </c>
       <c r="D321" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B322" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C322">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="D322" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>20</v>
+      </c>
+      <c r="B323" t="s">
         <v>23</v>
       </c>
-      <c r="B323" t="s">
-        <v>16</v>
-      </c>
       <c r="C323">
-        <v>211</v>
+        <v>344</v>
       </c>
       <c r="D323" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B324" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C324">
-        <v>212</v>
+        <v>345</v>
       </c>
       <c r="D324" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B325" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C325">
-        <v>213</v>
+        <v>346</v>
       </c>
       <c r="D325" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B326" t="s">
         <v>13</v>
       </c>
       <c r="C326">
-        <v>214</v>
+        <v>347</v>
       </c>
       <c r="D326" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C327">
-        <v>215</v>
+        <v>348</v>
       </c>
       <c r="D327" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C328">
-        <v>216</v>
+        <v>349</v>
       </c>
       <c r="D328" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B329" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C329">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="D329" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B330" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C330">
-        <v>218</v>
+        <v>351</v>
       </c>
       <c r="D330" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B331" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C331">
-        <v>219</v>
+        <v>352</v>
       </c>
       <c r="D331" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B332" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C332">
-        <v>220</v>
+        <v>353</v>
       </c>
       <c r="D332" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C333">
-        <v>221</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B334" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C334">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="D334" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B335" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C335">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="D335" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B336" t="s">
         <v>7</v>
       </c>
       <c r="C336">
-        <v>224</v>
+        <v>357</v>
       </c>
       <c r="D336" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B337" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C337">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="D337" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B338" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C338">
-        <v>226</v>
+        <v>359</v>
       </c>
       <c r="D338" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B339" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C339">
-        <v>227</v>
+        <v>360</v>
       </c>
       <c r="D339" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B340" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C340">
-        <v>228</v>
+        <v>361</v>
       </c>
       <c r="D340" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C341">
-        <v>229</v>
+        <v>362</v>
       </c>
       <c r="D341" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B342" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C342">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="D342" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B343" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C343">
-        <v>231</v>
+        <v>364</v>
       </c>
       <c r="D343" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B344" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C344">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="D344" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B345" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C345">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="D345" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C346">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="D346" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B347" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C347">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="D347" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B348" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C348">
-        <v>236</v>
+        <v>369</v>
       </c>
       <c r="D348" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B349" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C349">
-        <v>237</v>
+        <v>370</v>
       </c>
       <c r="D349" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B350" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C350">
-        <v>238</v>
+        <v>371</v>
       </c>
       <c r="D350" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B351" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C351">
-        <v>239</v>
+        <v>372</v>
       </c>
       <c r="D351" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C352">
-        <v>240</v>
+        <v>373</v>
       </c>
       <c r="D352" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B353" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C353">
-        <v>241</v>
+        <v>374</v>
       </c>
       <c r="D353" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C354">
-        <v>242</v>
+        <v>375</v>
       </c>
       <c r="D354" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C355">
-        <v>243</v>
+        <v>376</v>
       </c>
       <c r="D355" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B356" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C356">
-        <v>244</v>
+        <v>377</v>
       </c>
       <c r="D356" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C357">
-        <v>245</v>
+        <v>378</v>
       </c>
       <c r="D357" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C358">
-        <v>246</v>
+        <v>379</v>
       </c>
       <c r="D358" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B359" t="s">
         <v>14</v>
       </c>
       <c r="C359">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="D359" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C360">
-        <v>248</v>
+        <v>381</v>
       </c>
       <c r="D360" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B361" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C361">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="D361" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B362" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C362">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="D362" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B363" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C363">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="D363" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C364">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="D364" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B365" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C365">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="D365" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B366" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C366">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="D366" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C367">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="D367" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B368" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C368">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="D368" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C369">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="D369" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B370" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C370">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="D370" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B371" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C371">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="D371" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C372">
-        <v>343</v>
+        <v>393</v>
       </c>
       <c r="D372" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B373" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C373">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="D373" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B374" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C374">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D374" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B375" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C375">
-        <v>346</v>
+        <v>396</v>
       </c>
       <c r="D375" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C376">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="D376" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B377" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C377">
-        <v>348</v>
+        <v>398</v>
       </c>
       <c r="D377" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B378" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C378">
-        <v>349</v>
+        <v>399</v>
       </c>
       <c r="D378" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B379" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C379">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="D379" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B380" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C380">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="D380" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B381" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C381">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="D381" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B382" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C382">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="D382" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B383" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C383">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="D383" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C384">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="D384" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C385">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="D385" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B386" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C386">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="D386" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C387">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="D387" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B388" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C388">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="D388" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B389" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C389">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="D389" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C390">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="D390" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
       </c>
       <c r="C391">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="D391" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C392">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="D392" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B393" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C393">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="D393" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C394">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="D394" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C395">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="D395" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C396">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="D396" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B397" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C397">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="D397" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C398">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="D398" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B399" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C399">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="D399" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C400">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="D400" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>23</v>
-      </c>
-      <c r="B401" t="s">
-        <v>15</v>
-      </c>
-      <c r="C401">
-        <v>372</v>
-      </c>
-      <c r="D401" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>23</v>
-      </c>
-      <c r="B402" t="s">
-        <v>7</v>
-      </c>
-      <c r="C402">
-        <v>373</v>
-      </c>
-      <c r="D402" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>23</v>
-      </c>
-      <c r="B403" t="s">
-        <v>5</v>
-      </c>
-      <c r="C403">
-        <v>374</v>
-      </c>
-      <c r="D403" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>23</v>
-      </c>
-      <c r="B404" t="s">
-        <v>17</v>
-      </c>
-      <c r="C404">
-        <v>375</v>
-      </c>
-      <c r="D404" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>23</v>
-      </c>
-      <c r="B405" t="s">
-        <v>7</v>
-      </c>
-      <c r="C405">
-        <v>376</v>
-      </c>
-      <c r="D405" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>23</v>
-      </c>
-      <c r="B406" t="s">
-        <v>25</v>
-      </c>
-      <c r="C406">
-        <v>377</v>
-      </c>
-      <c r="D406" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>23</v>
-      </c>
-      <c r="B407" t="s">
-        <v>11</v>
-      </c>
-      <c r="C407">
-        <v>378</v>
-      </c>
-      <c r="D407" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>23</v>
-      </c>
-      <c r="B408" t="s">
-        <v>9</v>
-      </c>
-      <c r="C408">
-        <v>379</v>
-      </c>
-      <c r="D408" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>23</v>
-      </c>
-      <c r="B409" t="s">
-        <v>15</v>
-      </c>
-      <c r="C409">
-        <v>380</v>
-      </c>
-      <c r="D409" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>23</v>
-      </c>
-      <c r="B410" t="s">
-        <v>13</v>
-      </c>
-      <c r="C410">
-        <v>381</v>
-      </c>
-      <c r="D410" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>23</v>
-      </c>
-      <c r="B411" t="s">
-        <v>18</v>
-      </c>
-      <c r="C411">
-        <v>382</v>
-      </c>
-      <c r="D411" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>23</v>
-      </c>
-      <c r="B412" t="s">
-        <v>16</v>
-      </c>
-      <c r="C412">
-        <v>383</v>
-      </c>
-      <c r="D412" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>23</v>
-      </c>
-      <c r="B413" t="s">
-        <v>25</v>
-      </c>
-      <c r="C413">
-        <v>384</v>
-      </c>
-      <c r="D413" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>23</v>
-      </c>
-      <c r="B414" t="s">
-        <v>18</v>
-      </c>
-      <c r="C414">
-        <v>385</v>
-      </c>
-      <c r="D414" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>23</v>
-      </c>
-      <c r="B415" t="s">
-        <v>9</v>
-      </c>
-      <c r="C415">
-        <v>386</v>
-      </c>
-      <c r="D415" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>23</v>
-      </c>
-      <c r="B416" t="s">
-        <v>15</v>
-      </c>
-      <c r="C416">
-        <v>387</v>
-      </c>
-      <c r="D416" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>23</v>
-      </c>
-      <c r="B417" t="s">
-        <v>7</v>
-      </c>
-      <c r="C417">
-        <v>388</v>
-      </c>
-      <c r="D417" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>23</v>
-      </c>
-      <c r="B418" t="s">
-        <v>6</v>
-      </c>
-      <c r="C418">
-        <v>389</v>
-      </c>
-      <c r="D418" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>23</v>
-      </c>
-      <c r="B419" t="s">
-        <v>15</v>
-      </c>
-      <c r="C419">
-        <v>390</v>
-      </c>
-      <c r="D419" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>23</v>
-      </c>
-      <c r="B420" t="s">
-        <v>14</v>
-      </c>
-      <c r="C420">
-        <v>391</v>
-      </c>
-      <c r="D420" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>23</v>
-      </c>
-      <c r="B421" t="s">
-        <v>5</v>
-      </c>
-      <c r="C421">
-        <v>392</v>
-      </c>
-      <c r="D421" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>23</v>
-      </c>
-      <c r="B422" t="s">
-        <v>15</v>
-      </c>
-      <c r="C422">
-        <v>393</v>
-      </c>
-      <c r="D422" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>23</v>
-      </c>
-      <c r="B423" t="s">
-        <v>7</v>
-      </c>
-      <c r="C423">
-        <v>394</v>
-      </c>
-      <c r="D423" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>23</v>
-      </c>
-      <c r="B424" t="s">
-        <v>6</v>
-      </c>
-      <c r="C424">
-        <v>395</v>
-      </c>
-      <c r="D424" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>23</v>
-      </c>
-      <c r="B425" t="s">
-        <v>31</v>
-      </c>
-      <c r="C425">
-        <v>396</v>
-      </c>
-      <c r="D425" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>23</v>
-      </c>
-      <c r="B426" t="s">
-        <v>25</v>
-      </c>
-      <c r="C426">
-        <v>397</v>
-      </c>
-      <c r="D426" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>23</v>
-      </c>
-      <c r="B427" t="s">
-        <v>14</v>
-      </c>
-      <c r="C427">
-        <v>398</v>
-      </c>
-      <c r="D427" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>23</v>
-      </c>
-      <c r="B428" t="s">
-        <v>31</v>
-      </c>
-      <c r="C428">
-        <v>399</v>
-      </c>
-      <c r="D428" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>23</v>
-      </c>
-      <c r="B429" t="s">
-        <v>8</v>
-      </c>
-      <c r="C429">
-        <v>400</v>
-      </c>
-      <c r="D429" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>23</v>
-      </c>
-      <c r="B430" t="s">
-        <v>14</v>
-      </c>
-      <c r="C430">
-        <v>401</v>
-      </c>
-      <c r="D430" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>23</v>
-      </c>
-      <c r="B431" t="s">
-        <v>25</v>
-      </c>
-      <c r="C431">
-        <v>402</v>
-      </c>
-      <c r="D431" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>23</v>
-      </c>
-      <c r="B432" t="s">
-        <v>31</v>
-      </c>
-      <c r="C432">
-        <v>403</v>
-      </c>
-      <c r="D432" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>23</v>
-      </c>
-      <c r="B433" t="s">
-        <v>7</v>
-      </c>
-      <c r="C433">
-        <v>404</v>
-      </c>
-      <c r="D433" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>23</v>
-      </c>
-      <c r="B434" t="s">
-        <v>14</v>
-      </c>
-      <c r="C434">
-        <v>405</v>
-      </c>
-      <c r="D434" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>23</v>
-      </c>
-      <c r="B435" t="s">
-        <v>25</v>
-      </c>
-      <c r="C435">
-        <v>406</v>
-      </c>
-      <c r="D435" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>23</v>
-      </c>
-      <c r="B436" t="s">
-        <v>25</v>
-      </c>
-      <c r="C436">
-        <v>407</v>
-      </c>
-      <c r="D436" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>23</v>
-      </c>
-      <c r="B437" t="s">
-        <v>31</v>
-      </c>
-      <c r="C437">
-        <v>408</v>
-      </c>
-      <c r="D437" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>23</v>
-      </c>
-      <c r="B438" t="s">
-        <v>25</v>
-      </c>
-      <c r="C438">
-        <v>409</v>
-      </c>
-      <c r="D438" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>23</v>
-      </c>
-      <c r="B439" t="s">
-        <v>14</v>
-      </c>
-      <c r="C439">
-        <v>410</v>
-      </c>
-      <c r="D439" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>23</v>
-      </c>
-      <c r="B440" t="s">
-        <v>14</v>
-      </c>
-      <c r="C440">
-        <v>411</v>
-      </c>
-      <c r="D440" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>23</v>
-      </c>
-      <c r="B441" t="s">
-        <v>7</v>
-      </c>
-      <c r="C441">
-        <v>412</v>
-      </c>
-      <c r="D441" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>23</v>
-      </c>
-      <c r="B442" t="s">
-        <v>20</v>
-      </c>
-      <c r="C442">
-        <v>413</v>
-      </c>
-      <c r="D442" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>23</v>
-      </c>
-      <c r="B443" t="s">
-        <v>11</v>
-      </c>
-      <c r="C443">
-        <v>414</v>
-      </c>
-      <c r="D443" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>23</v>
-      </c>
-      <c r="B444" t="s">
-        <v>5</v>
-      </c>
-      <c r="C444">
-        <v>415</v>
-      </c>
-      <c r="D444" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>23</v>
-      </c>
-      <c r="B445" t="s">
-        <v>8</v>
-      </c>
-      <c r="C445">
-        <v>416</v>
-      </c>
-      <c r="D445" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>23</v>
-      </c>
-      <c r="B446" t="s">
-        <v>5</v>
-      </c>
-      <c r="C446">
-        <v>417</v>
-      </c>
-      <c r="D446" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>23</v>
-      </c>
-      <c r="B447" t="s">
-        <v>14</v>
-      </c>
-      <c r="C447">
-        <v>418</v>
-      </c>
-      <c r="D447" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>23</v>
-      </c>
-      <c r="B448" t="s">
-        <v>6</v>
-      </c>
-      <c r="C448">
-        <v>419</v>
-      </c>
-      <c r="D448" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>23</v>
-      </c>
-      <c r="B449" t="s">
-        <v>16</v>
-      </c>
-      <c r="C449">
-        <v>420</v>
-      </c>
-      <c r="D449" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>23</v>
-      </c>
-      <c r="B450" t="s">
-        <v>13</v>
-      </c>
-      <c r="C450">
-        <v>421</v>
-      </c>
-      <c r="D450" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
